--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,14 +753,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2931-2026</t>
+          <t>A 31991-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46038.58359953704</v>
+        <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -773,39 +773,131 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>15.1</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ärtsångare
+Blanksvart trämyra
+Rostfläck
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 31991-2025 artfynd.xlsx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 31991-2025 karta.png", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 31991-2025 FSC-klagomål.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 31991-2025 FSC-klagomål mail.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 31991-2025 tillsynsbegäran.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 31991-2025 tillsynsbegäran mail.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 31991-2025 prioriterade fågelarter.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2931-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46038.58359953704</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Småvänderot
 Entita
@@ -813,138 +905,46 @@
 Grönsiska</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 2931-2026 artfynd.xlsx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 2931-2026 karta.png", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 2931-2026 FSC-klagomål.docx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 2931-2026 FSC-klagomål mail.docx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 2931-2026 tillsynsbegäran.docx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 2931-2026 tillsynsbegäran mail.docx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 2931-2026 prioriterade fågelarter.docx", "A 2931-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 31991-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45835</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ärtsångare
-Blanksvart trämyra
-Rostfläck
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 31991-2025 artfynd.xlsx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 31991-2025 karta.png", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 31991-2025 FSC-klagomål.docx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 31991-2025 FSC-klagomål mail.docx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 31991-2025 tillsynsbegäran.docx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 31991-2025 tillsynsbegäran mail.docx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 31991-2025 prioriterade fågelarter.docx", "A 31991-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 28874-2023</t>
+          <t>A 584-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45104</v>
+        <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -990,212 +990,212 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 28874-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Blåmossa
 Stubbspretmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 584-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45664.57672453704</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
         <v/>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45707</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 33520-2025</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45841.54231481482</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,49 +1782,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 33520-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1837,10 +1833,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1871,45 +1867,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45210</v>
+        <v>46041</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1956,45 +1956,49 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46041</v>
+        <v>45210</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,7 +2011,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2016,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2031,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2041,35 +2045,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
         <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2161,14 +2161,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44553</v>
+        <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2215,49 +2215,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45705</v>
+        <v>44553</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2270,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2279,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2294,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2304,31 +2300,35 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44340</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44827</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44553</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>44839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 6574-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45887</v>
+        <v>44236</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3646,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10454-2025</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45720.7090625</v>
+        <v>45169</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3703,14 +3703,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 10454-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45887</v>
+        <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3817,14 +3817,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45377</v>
+        <v>45474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3874,14 +3874,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45377</v>
+        <v>45583</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45713</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3988,14 +3988,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4045,14 +4045,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45705</v>
+        <v>45670</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4102,14 +4102,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45706</v>
+        <v>44887</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4159,14 +4159,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45735</v>
+        <v>45887</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4216,14 +4216,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45281</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4273,14 +4273,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44929</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>17.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4330,14 +4330,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45735</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4387,14 +4387,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4444,14 +4444,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45895</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4501,14 +4501,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44879</v>
+        <v>45898</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4558,14 +4558,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4615,14 +4615,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4672,14 +4672,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4729,14 +4729,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45115</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4786,14 +4786,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45097</v>
+        <v>45189</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4843,14 +4843,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45895</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4900,14 +4900,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44498</v>
+        <v>45915</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4957,14 +4957,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45898</v>
+        <v>45502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5014,14 +5014,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45118</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5071,14 +5071,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45981</v>
+        <v>45016</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5128,14 +5128,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>45581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5185,14 +5185,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45281</v>
+        <v>44887</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5242,14 +5242,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45474</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5299,14 +5299,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45323</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5356,14 +5356,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5413,14 +5413,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45345</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5470,14 +5470,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>45930</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>17.9</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5527,14 +5527,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45915</v>
+        <v>45596</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5584,14 +5584,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45502</v>
+        <v>45735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5641,14 +5641,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45299</v>
+        <v>45735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5698,14 +5698,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45994</v>
+        <v>44864</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5755,14 +5755,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45581</v>
+        <v>45323</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5812,14 +5812,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5869,14 +5869,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>44973</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5926,14 +5926,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5983,14 +5983,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44887</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6040,14 +6040,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>45210</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6097,14 +6097,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45930</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6154,14 +6154,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6211,14 +6211,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45097</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6268,14 +6268,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45099</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6325,14 +6325,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45022</v>
+        <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6382,14 +6382,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46047</v>
+        <v>45705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6439,14 +6439,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44693</v>
+        <v>45075</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6496,14 +6496,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45583</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6553,14 +6553,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6610,14 +6610,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44259</v>
+        <v>45972</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6667,14 +6667,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45972</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6724,14 +6724,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45115</v>
+        <v>45887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6781,14 +6781,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45713</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6838,14 +6838,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45972</v>
+        <v>45981</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6895,14 +6895,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45972</v>
+        <v>45377</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6952,14 +6952,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7009,14 +7009,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45763</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7066,14 +7066,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44613</v>
+        <v>45022</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7123,14 +7123,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45097</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7180,14 +7180,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45763</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7237,14 +7237,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45117</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7294,14 +7294,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45075</v>
+        <v>45994</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7351,14 +7351,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45323</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7408,14 +7408,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45210</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7465,14 +7465,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44257</v>
+        <v>45303</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7522,14 +7522,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45169</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7579,14 +7579,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45169</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7636,14 +7636,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>46047</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7693,14 +7693,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45670</v>
+        <v>45115</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7750,14 +7750,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45118</v>
+        <v>45163</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7807,14 +7807,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44839</v>
+        <v>45118</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7864,14 +7864,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45163</v>
+        <v>45115</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7921,14 +7921,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7978,14 +7978,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45189</v>
+        <v>45061</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8035,14 +8035,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45631</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8092,14 +8092,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44746</v>
+        <v>44498</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8149,14 +8149,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44887</v>
+        <v>45097</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8206,14 +8206,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>44879</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8263,14 +8263,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45303</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8320,14 +8320,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>45377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8377,14 +8377,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8434,14 +8434,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45016</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8491,14 +8491,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44864</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8548,14 +8548,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45345</v>
+        <v>45407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8605,14 +8605,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45596</v>
+        <v>45118</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8662,14 +8662,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45012</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8719,14 +8719,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45323</v>
+        <v>45583</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8776,14 +8776,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8833,14 +8833,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45293</v>
+        <v>45169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8890,14 +8890,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45706</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8947,14 +8947,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45120</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9004,14 +9004,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 6574-2021</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44236</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9061,14 +9061,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45120</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9118,14 +9118,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>44746</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9175,14 +9175,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>44259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9232,14 +9232,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45061</v>
+        <v>45117</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9289,14 +9289,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45118</v>
+        <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9346,14 +9346,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44973</v>
+        <v>45293</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9403,14 +9403,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45407</v>
+        <v>45299</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9460,14 +9460,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45583</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.2</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9517,14 +9517,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>44693</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9574,14 +9574,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45436</v>
+        <v>45631</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9631,14 +9631,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45456</v>
+        <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9688,14 +9688,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>44929</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9745,14 +9745,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45590</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9802,14 +9802,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45582</v>
+        <v>45436</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9859,14 +9859,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>45456</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9916,14 +9916,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9973,14 +9973,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45590</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45707</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>46041</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45210</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44553</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44340</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44827</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44553</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44236</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>45169</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>45700.46334490741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>45474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>45583</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44593.68116898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45670</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44887</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>45887</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45281</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>45463.71800925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45891.5194675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45454.61513888889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45895</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45898</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45622.48444444445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>45708.2620949074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45908.57619212963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>45189</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>45912.64872685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45915</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44720.50751157408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>45016</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44887</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45926.57591435185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45835.4065625</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45929.67606481481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45345</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45930</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45596</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44864</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45323</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45736.77020833334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>44973</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44900.69418981481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44830.55204861111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45210</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45461.46796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45954.51563657408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45462.46355324074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>45328.66599537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>45705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>45075</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45882.3615625</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45715.62634259259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45972</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45972</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45713</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45981</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45377</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45680.68038194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45763</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45022</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45097</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45313.63804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>46037.41112268518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45994</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45323</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45103.45262731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45303</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45120.56152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44900.69137731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>46047</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>45115</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>45163</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>45118</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45115</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>45061</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>44973.77732638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>44498</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45097</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44879</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>45236.34621527778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>45377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44693.50188657407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45687.56328703704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>45117.89738425926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45118</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45140.38099537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45583</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45456.30621527778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45706</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45120</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45483.78387731482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45632.43736111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44746</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45117</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45293</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>45299</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45595.36711805555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44693</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45631</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44929</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45776.32377314815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45436</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45456</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45623.3237962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45590</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45707</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>46041</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45210</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44553</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44340</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44827</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44553</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44236</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>45169</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>45700.46334490741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>45474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>45583</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44593.68116898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45670</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44887</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>45887</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45281</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>45463.71800925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45891.5194675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45454.61513888889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45895</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>45898</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>45582</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45622.48444444445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>45708.2620949074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45908.57619212963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>45189</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>45912.64872685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45915</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44720.50751157408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>45016</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44887</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45926.57591435185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45835.4065625</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45929.67606481481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45345</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45930</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45596</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>44864</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45323</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45736.77020833334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>44973</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>44900.69418981481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44830.55204861111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45210</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45461.46796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45954.51563657408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45462.46355324074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>45328.66599537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>45705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>45075</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45882.3615625</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45715.62634259259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45972</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45972</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45713</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45981</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45377</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45680.68038194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45763</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45022</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45097</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45313.63804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>46037.41112268518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45994</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45323</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45103.45262731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45303</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>45120.56152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44900.69137731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>46047</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>45115</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>45163</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>45118</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45115</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>45061</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>44973.77732638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>44498</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45097</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44879</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>45236.34621527778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>45377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44693.50188657407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45687.56328703704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>45117.89738425926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45118</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45140.38099537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45583</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45456.30621527778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45706</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45120</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45483.78387731482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45632.43736111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44746</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45117</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45293</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>45299</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45595.36711805555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44693</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45631</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44929</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45776.32377314815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45436</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45456</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45623.3237962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45590</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z156"/>
+  <dimension ref="A1:Z157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,14 +937,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 584-2025</t>
+          <t>A 28874-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45664.57672453704</v>
+        <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,16 +957,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -990,212 +990,212 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Blåmossa
+Stubbspretmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 584-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45664.57672453704</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 28874-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Stubbspretmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
         <v/>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,14 +1293,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 29157-2023</t>
+          <t>A 8065-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45105.47994212963</v>
+        <v>45707</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,19 +1313,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1340,129 +1340,129 @@
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 29157-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45105.47994212963</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 8065-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45707</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
         <v/>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>45210</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,16 +1748,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1782,31 +1782,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,14 +1902,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46041</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1956,49 +1956,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 50684-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>45210</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2007,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2045,45 +2041,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50684-2023</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45210</v>
+        <v>46041</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2092,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2105,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2120,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2130,45 +2126,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45705</v>
+        <v>44553</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2215,45 +2215,49 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44553</v>
+        <v>45705</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2266,7 +2270,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2275,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2290,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2300,35 +2304,31 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44340</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44827</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44553</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44839</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6574-2021</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44236</v>
+        <v>45713</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3646,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 10454-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45169</v>
+        <v>45720.7090625</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3703,14 +3703,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10454-2025</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45720.7090625</v>
+        <v>45377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3817,14 +3817,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45474</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3874,14 +3874,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45583</v>
+        <v>44879</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45097</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3988,14 +3988,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45118</v>
+        <v>45281</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4045,14 +4045,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45670</v>
+        <v>45323</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4102,14 +4102,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44887</v>
+        <v>45474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4159,14 +4159,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45887</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4216,14 +4216,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45281</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>17.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4273,14 +4273,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>45502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>17.9</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4330,14 +4330,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45299</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4387,14 +4387,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4444,14 +4444,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45895</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4501,14 +4501,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45898</v>
+        <v>45097</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4558,14 +4558,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45582</v>
+        <v>45099</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4615,14 +4615,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>44887</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4672,14 +4672,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45022</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4729,14 +4729,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>44693</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4786,14 +4786,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45189</v>
+        <v>45583</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4843,14 +4843,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>45887</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4900,14 +4900,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45915</v>
+        <v>45887</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4957,14 +4957,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45502</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5014,14 +5014,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>44259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5071,14 +5071,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45016</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5128,14 +5128,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45581</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5185,14 +5185,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44887</v>
+        <v>45895</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5242,14 +5242,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>45115</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5299,14 +5299,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45898</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5356,14 +5356,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5413,14 +5413,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45345</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5470,14 +5470,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45930</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5527,14 +5527,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45596</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5584,14 +5584,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45735</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5641,14 +5641,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45735</v>
+        <v>45915</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5698,14 +5698,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44864</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5755,14 +5755,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45323</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5812,14 +5812,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5869,14 +5869,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44973</v>
+        <v>45169</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5926,14 +5926,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5983,14 +5983,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45670</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6040,14 +6040,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45210</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6097,14 +6097,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45930</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6154,14 +6154,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6211,14 +6211,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45705</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6268,14 +6268,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45706</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6325,14 +6325,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45012</v>
+        <v>45735</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6382,14 +6382,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45705</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6439,14 +6439,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45075</v>
+        <v>44929</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6496,14 +6496,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>45735</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6553,14 +6553,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6610,14 +6610,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45972</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6667,14 +6667,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45972</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6724,14 +6724,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45887</v>
+        <v>45115</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6781,14 +6781,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45713</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6838,14 +6838,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45981</v>
+        <v>44498</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6895,14 +6895,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45377</v>
+        <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6952,14 +6952,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>45581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7009,14 +7009,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45763</v>
+        <v>45972</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7066,14 +7066,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45022</v>
+        <v>45972</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7123,14 +7123,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45097</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7180,14 +7180,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>44613</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7237,14 +7237,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45981</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7294,14 +7294,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45994</v>
+        <v>45763</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7351,14 +7351,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45323</v>
+        <v>45117</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7408,14 +7408,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7465,14 +7465,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45303</v>
+        <v>45210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7522,14 +7522,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>44257</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7579,14 +7579,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7636,14 +7636,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46047</v>
+        <v>45994</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7693,14 +7693,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45115</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7750,14 +7750,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45163</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7807,14 +7807,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>45118</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7864,14 +7864,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45115</v>
+        <v>44839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7921,14 +7921,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45099</v>
+        <v>45163</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7978,14 +7978,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45061</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8035,14 +8035,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>46047</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8092,14 +8092,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44498</v>
+        <v>45189</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8149,14 +8149,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45097</v>
+        <v>45631</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8206,14 +8206,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44879</v>
+        <v>44746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>7.2</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8263,14 +8263,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>44887</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8320,14 +8320,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45377</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8377,14 +8377,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8434,14 +8434,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8491,14 +8491,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45303</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8548,14 +8548,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45407</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8605,14 +8605,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45118</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8662,14 +8662,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45016</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8719,14 +8719,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45583</v>
+        <v>44864</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8776,14 +8776,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45345</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8833,14 +8833,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45169</v>
+        <v>45596</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8890,14 +8890,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45706</v>
+        <v>45012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8947,14 +8947,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45120</v>
+        <v>45323</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9004,14 +9004,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9061,14 +9061,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45293</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9118,14 +9118,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44746</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9175,14 +9175,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44259</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9232,14 +9232,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45117</v>
+        <v>45120</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9289,14 +9289,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44613</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9346,14 +9346,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45293</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9403,14 +9403,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45299</v>
+        <v>45061</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9460,14 +9460,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45118</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9517,14 +9517,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44693</v>
+        <v>44973</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9574,14 +9574,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45631</v>
+        <v>45407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9631,14 +9631,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44257</v>
+        <v>45583</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>6.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9688,14 +9688,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44929</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9745,14 +9745,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>45436</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9802,14 +9802,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45436</v>
+        <v>45456</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9859,14 +9859,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45456</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9916,14 +9916,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>45590</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9970,17 +9970,17 @@
       </c>
       <c r="R155" s="2" t="inlineStr"/>
     </row>
-    <row r="156">
+    <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45590</v>
+        <v>45582</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10026,6 +10026,63 @@
         <v>0</v>
       </c>
       <c r="R156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>A 55529-2024</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>45622.48444444445</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,14 +937,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 28874-2023</t>
+          <t>A 584-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45104</v>
+        <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -990,303 +990,303 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 18559-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Gulsparv
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 28874-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Blåmossa
 Stubbspretmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 584-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45664.57672453704</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 18559-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45763</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Gulsparv
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
         <v/>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
         <v>45707</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45210</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,17 +1748,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1782,31 +1782,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,14 +1902,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>46041</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1956,45 +1956,49 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50684-2023</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>45210</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,7 +2011,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2041,45 +2045,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 50684-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46041</v>
+        <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2096,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2101,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2116,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2126,49 +2130,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44553</v>
+        <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2215,49 +2215,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45705</v>
+        <v>44553</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2270,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2279,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2294,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2304,31 +2300,35 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44340</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44827</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44553</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3532,14 +3532,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45713</v>
+        <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3646,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10454-2025</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45720.7090625</v>
+        <v>45895</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3703,14 +3703,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45377</v>
+        <v>45887</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45377</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3817,14 +3817,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>44746</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3874,14 +3874,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44879</v>
+        <v>45169</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3931,14 +3931,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45097</v>
+        <v>45898</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3988,14 +3988,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45281</v>
+        <v>44259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4045,14 +4045,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45323</v>
+        <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4102,14 +4102,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45474</v>
+        <v>44613</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4159,14 +4159,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45293</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4216,14 +4216,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 10454-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>45720.7090625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>17.9</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4273,14 +4273,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45502</v>
+        <v>45299</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4330,14 +4330,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45299</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4387,14 +4387,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4444,14 +4444,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>44693</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4501,14 +4501,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45097</v>
+        <v>45474</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4558,14 +4558,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45099</v>
+        <v>45631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4615,14 +4615,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44887</v>
+        <v>44257</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4672,14 +4672,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45022</v>
+        <v>44929</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4729,14 +4729,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44693</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4786,14 +4786,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45583</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4843,14 +4843,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45887</v>
+        <v>45583</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4900,14 +4900,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45887</v>
+        <v>45436</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4957,14 +4957,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5014,14 +5014,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44259</v>
+        <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5071,14 +5071,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45670</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5128,14 +5128,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45456</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5185,14 +5185,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45895</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5242,14 +5242,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45115</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5299,14 +5299,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45898</v>
+        <v>45590</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5356,14 +5356,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5413,14 +5413,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>44887</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5470,14 +5470,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5527,14 +5527,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>17.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5584,14 +5584,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5641,14 +5641,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45915</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5698,14 +5698,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45582</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5755,14 +5755,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5812,14 +5812,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45189</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5869,14 +5869,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45169</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5926,14 +5926,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>45502</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5983,14 +5983,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45670</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6040,14 +6040,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6097,14 +6097,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45930</v>
+        <v>45016</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6154,14 +6154,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45581</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6211,14 +6211,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45705</v>
+        <v>44887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6268,14 +6268,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45706</v>
+        <v>45930</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6325,14 +6325,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45735</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6382,14 +6382,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45345</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6439,14 +6439,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44929</v>
+        <v>45596</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>45735</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6553,14 +6553,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45735</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6610,14 +6610,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6667,14 +6667,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>44864</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6724,14 +6724,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45115</v>
+        <v>45323</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6781,14 +6781,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>44973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6838,14 +6838,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44498</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6895,14 +6895,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45118</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6952,14 +6952,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45581</v>
+        <v>45210</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7009,14 +7009,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45972</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7066,14 +7066,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45972</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7123,14 +7123,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7180,14 +7180,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44613</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7237,14 +7237,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45981</v>
+        <v>45012</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7294,14 +7294,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45763</v>
+        <v>45705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7351,14 +7351,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45117</v>
+        <v>45075</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7408,14 +7408,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45075</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7465,14 +7465,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45210</v>
+        <v>45887</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7522,14 +7522,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44257</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7579,14 +7579,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45169</v>
+        <v>45713</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7636,14 +7636,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45994</v>
+        <v>45972</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7693,14 +7693,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45972</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7750,14 +7750,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45981</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7807,14 +7807,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45118</v>
+        <v>45377</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7864,14 +7864,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44839</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7921,14 +7921,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45163</v>
+        <v>45763</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7978,14 +7978,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45022</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8035,14 +8035,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46047</v>
+        <v>45097</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8092,14 +8092,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45189</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8149,14 +8149,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45631</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8206,14 +8206,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44746</v>
+        <v>45994</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8263,14 +8263,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44887</v>
+        <v>45323</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8320,14 +8320,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8377,14 +8377,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>45303</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8434,14 +8434,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8491,14 +8491,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45303</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8548,14 +8548,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>46047</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8605,14 +8605,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45115</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8662,14 +8662,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45016</v>
+        <v>45163</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8719,14 +8719,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44864</v>
+        <v>45118</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8776,14 +8776,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45345</v>
+        <v>45115</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8833,14 +8833,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45596</v>
+        <v>45099</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8890,14 +8890,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45012</v>
+        <v>45061</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8947,14 +8947,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45323</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9004,14 +9004,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>44498</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9061,14 +9061,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45293</v>
+        <v>45097</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9118,14 +9118,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9175,14 +9175,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9232,14 +9232,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45120</v>
+        <v>44879</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9289,14 +9289,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9346,14 +9346,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>45377</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9403,14 +9403,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45061</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9460,14 +9460,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45118</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9517,14 +9517,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44973</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>45407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9631,14 +9631,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45583</v>
+        <v>45118</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9688,14 +9688,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9745,14 +9745,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45436</v>
+        <v>45583</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9802,14 +9802,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45456</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9859,14 +9859,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>45169</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9916,14 +9916,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45590</v>
+        <v>45706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9973,14 +9973,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45582</v>
+        <v>45120</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10030,14 +10030,14 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z157"/>
+  <dimension ref="A1:Z158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,14 +937,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 584-2025</t>
+          <t>A 28874-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45664.57672453704</v>
+        <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,16 +957,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -990,317 +990,317 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Blåmossa
+Stubbspretmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 584-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45664.57672453704</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 18559-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45763</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Gulsparv
 Gröngöling</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 28874-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Stubbspretmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 8065-2025</t>
+          <t>A 29157-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45707</v>
+        <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,19 +1313,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>6.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1340,129 +1340,129 @@
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 8065-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45707</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot
 Svinrot</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 29157-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45105.47994212963</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
         <v/>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>45210</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,16 +1748,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1782,45 +1782,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33520-2025</t>
+          <t>A 50684-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45841.54231481482</v>
+        <v>45210</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1867,49 +1867,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 33520-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46041</v>
+        <v>45841.54231481482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,7 +1918,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1960,45 +1956,45 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45210</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,17 +2007,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2035,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2045,45 +2041,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50684-2023</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45210</v>
+        <v>44553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2092,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2105,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2120,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2130,31 +2126,35 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2246,14 +2246,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44553</v>
+        <v>46041</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2304,45 +2304,45 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44060-2022</t>
+          <t>A 8133-2026</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44839</v>
+        <v>46064.30774305556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2385,21 +2385,49 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 53742-2022</t>
+          <t>A 44060-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44880.43927083333</v>
+        <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2449,14 +2477,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 44247-2022</t>
+          <t>A 53742-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44839.56018518518</v>
+        <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2506,14 +2534,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 24233-2022</t>
+          <t>A 44247-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44725.65212962963</v>
+        <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2526,7 +2554,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2563,14 +2591,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 44473-2022</t>
+          <t>A 24233-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44840.33121527778</v>
+        <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2611,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2620,14 +2648,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 41769-2022</t>
+          <t>A 44473-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44827</v>
+        <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2668,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2677,14 +2705,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 61263-2021</t>
+          <t>A 13873-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44498.5819212963</v>
+        <v>44277.39847222222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2725,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2734,14 +2762,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61269-2021</t>
+          <t>A 24691-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44498.58678240741</v>
+        <v>44340</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2782,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2791,14 +2819,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56094-2021</t>
+          <t>A 36036-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44477</v>
+        <v>44802</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2839,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2848,14 +2876,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32735-2021</t>
+          <t>A 15046-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44375</v>
+        <v>44657.63517361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2896,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2905,14 +2933,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 15046-2022</t>
+          <t>A 36041-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44657.63517361111</v>
+        <v>44802.69045138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2953,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2962,14 +2990,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 11775-2022</t>
+          <t>A 41769-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44634.59737268519</v>
+        <v>44827</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3019,14 +3047,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13873-2021</t>
+          <t>A 41725-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44277.39847222222</v>
+        <v>44827</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3067,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3076,14 +3104,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24691-2021</t>
+          <t>A 61263-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44340</v>
+        <v>44498.5819212963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3096,7 +3124,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3133,14 +3161,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 36036-2022</t>
+          <t>A 61269-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44802</v>
+        <v>44498.58678240741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3153,7 +3181,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3190,14 +3218,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36041-2022</t>
+          <t>A 11775-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44802.69045138889</v>
+        <v>44634.59737268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3210,7 +3238,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3247,14 +3275,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 41725-2022</t>
+          <t>A 56094-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44827</v>
+        <v>44477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3267,7 +3295,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3311,7 +3339,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3368,7 +3396,7 @@
         <v>44480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3418,14 +3446,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11773-2022</t>
+          <t>A 32735-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44634.59633101852</v>
+        <v>44375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3438,7 +3466,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3475,14 +3503,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 74214-2021</t>
+          <t>A 11773-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44553</v>
+        <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3495,7 +3523,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>19.8</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3532,14 +3560,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45474</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3552,7 +3580,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3589,14 +3617,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44839</v>
+        <v>45323</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3609,7 +3637,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3646,14 +3674,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 74214-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45895</v>
+        <v>44553</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3666,7 +3694,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>19.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3703,14 +3731,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45887</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3723,7 +3751,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3760,14 +3788,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3780,7 +3808,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>17.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3817,14 +3845,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44746</v>
+        <v>45735</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3837,7 +3865,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3874,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45169</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3894,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3931,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45898</v>
+        <v>44929</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3988,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44259</v>
+        <v>45502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4008,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4045,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45117</v>
+        <v>45299</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44613</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4122,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4159,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 10454-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45293</v>
+        <v>45720.7090625</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4179,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4216,14 +4244,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10454-2025</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45720.7090625</v>
+        <v>45735</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4236,7 +4264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4273,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45299</v>
+        <v>45377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4293,7 +4321,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4330,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45377</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4350,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4387,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45713</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4407,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4444,14 +4472,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44693</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4464,7 +4492,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4501,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45474</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4521,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4558,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45631</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4578,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4615,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44257</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4635,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4672,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44929</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4729,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>44879</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4786,14 +4814,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>45115</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4834,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4843,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45583</v>
+        <v>44887</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4900,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45436</v>
+        <v>44498</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4920,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4957,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,7 +5005,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5014,14 +5042,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5071,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45670</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5128,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45456</v>
+        <v>45581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5185,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>45097</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5242,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>45099</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5262,7 +5290,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5299,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45590</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5319,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5356,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45915</v>
+        <v>45281</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5376,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5413,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44887</v>
+        <v>45022</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5433,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5470,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45281</v>
+        <v>44693</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5490,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5527,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>45583</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5547,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>17.9</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5584,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>44613</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5604,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5641,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45582</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5661,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5698,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45582</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5718,7 +5746,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5755,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>45763</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5775,7 +5803,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5812,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45189</v>
+        <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5869,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>44259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5889,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5926,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45502</v>
+        <v>45075</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5946,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5983,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6003,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6040,14 +6068,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45210</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6060,7 +6088,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6097,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45016</v>
+        <v>45115</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6117,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6154,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45581</v>
+        <v>44257</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6174,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6211,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44887</v>
+        <v>45169</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6268,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45930</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6288,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6325,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45016</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6345,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6382,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45345</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6402,7 +6430,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6439,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45596</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6459,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6496,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45735</v>
+        <v>44864</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6516,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6553,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45735</v>
+        <v>45345</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6573,7 +6601,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6610,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45596</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6667,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44864</v>
+        <v>45118</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6687,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6724,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45323</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6744,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6781,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44973</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6801,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6838,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>44839</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6858,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6895,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6915,7 +6943,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6952,14 +6980,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45210</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6972,7 +7000,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7009,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45163</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7029,7 +7057,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7066,14 +7094,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7086,7 +7114,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7123,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7143,7 +7171,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7180,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45169</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7200,7 +7228,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7237,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45012</v>
+        <v>45189</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7257,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7294,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45705</v>
+        <v>45012</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7314,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7351,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45075</v>
+        <v>45323</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7371,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7408,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45670</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7428,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7465,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45887</v>
+        <v>45631</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7485,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7522,14 +7550,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>44746</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7542,7 +7570,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7579,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45713</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7599,7 +7627,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7636,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45972</v>
+        <v>44887</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7656,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7693,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45972</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7713,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7750,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45981</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7770,7 +7798,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7807,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45377</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7827,7 +7855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7864,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>45303</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7884,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7921,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45763</v>
+        <v>45705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7941,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7978,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45022</v>
+        <v>45706</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7998,7 +8026,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8035,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45097</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8055,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8092,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>45887</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8112,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8149,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45293</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8169,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8206,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45994</v>
+        <v>45887</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8226,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8263,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45323</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8283,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8320,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8340,7 +8368,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8377,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45303</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8397,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8434,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45895</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8454,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8491,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8511,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8548,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46047</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8605,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45115</v>
+        <v>45898</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8625,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8662,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45163</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8682,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8719,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45118</v>
+        <v>45061</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8739,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8776,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45115</v>
+        <v>45118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8796,7 +8824,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8833,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45099</v>
+        <v>44973</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8853,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8890,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45061</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8910,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8947,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8995,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9004,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44498</v>
+        <v>45407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9024,7 +9052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9061,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45097</v>
+        <v>45915</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9081,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9118,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>45583</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9138,7 +9166,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9175,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9195,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9232,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44879</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9252,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9289,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9309,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9346,14 +9374,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45377</v>
+        <v>45436</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9366,7 +9394,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9403,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45930</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9423,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9460,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>45456</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9480,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9517,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9537,7 +9565,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9574,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45407</v>
+        <v>45590</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9594,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9631,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45118</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9651,7 +9679,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9688,14 +9716,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45972</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9708,7 +9736,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9745,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45583</v>
+        <v>45972</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9765,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9802,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45981</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9822,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9859,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45169</v>
+        <v>45994</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9879,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9916,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45706</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9936,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9973,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45120</v>
+        <v>46047</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9993,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10027,17 +10055,17 @@
       </c>
       <c r="R156" s="2" t="inlineStr"/>
     </row>
-    <row r="157">
+    <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10050,7 +10078,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10083,6 +10111,63 @@
         <v>0</v>
       </c>
       <c r="R157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>A 7859-2026</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>46062.68539351852</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,14 +937,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 28874-2023</t>
+          <t>A 584-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45104</v>
+        <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -990,212 +990,212 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 28874-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Blåmossa
 Stubbspretmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 584-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45664.57672453704</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
         <v/>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45707</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45210</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,17 +1748,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1782,45 +1782,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50684-2023</t>
+          <t>A 8133-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45210</v>
+        <v>46064.30774305556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1867,31 +1867,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
         <v>45841.54231481482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,14 +1987,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>45210</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,16 +2007,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2041,45 +2041,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 50684-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44553</v>
+        <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2126,49 +2126,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45705</v>
+        <v>46041</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2177,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2190,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2205,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2215,45 +2211,49 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46041</v>
+        <v>45705</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2300,49 +2300,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 8133-2026</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46064.30774305556</v>
+        <v>44553</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2355,17 +2351,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2389,31 +2385,35 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,14 +2705,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 13873-2021</t>
+          <t>A 41769-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44277.39847222222</v>
+        <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2762,14 +2762,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24691-2021</t>
+          <t>A 61263-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44340</v>
+        <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2819,14 +2819,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36036-2022</t>
+          <t>A 61269-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44802</v>
+        <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2876,14 +2876,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 15046-2022</t>
+          <t>A 56094-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44657.63517361111</v>
+        <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2933,14 +2933,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36041-2022</t>
+          <t>A 32735-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44802.69045138889</v>
+        <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2990,14 +2990,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41769-2022</t>
+          <t>A 15046-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44827</v>
+        <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3047,14 +3047,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41725-2022</t>
+          <t>A 11775-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44827</v>
+        <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3104,14 +3104,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 61263-2021</t>
+          <t>A 13873-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44498.5819212963</v>
+        <v>44277.39847222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3161,14 +3161,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 61269-2021</t>
+          <t>A 24691-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44498.58678240741</v>
+        <v>44340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3218,14 +3218,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 11775-2022</t>
+          <t>A 36036-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44634.59737268519</v>
+        <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,14 +3275,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 56094-2021</t>
+          <t>A 36041-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44477</v>
+        <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3332,14 +3332,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13876-2021</t>
+          <t>A 41725-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44277.40048611111</v>
+        <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3389,14 +3389,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 56569-2021</t>
+          <t>A 13876-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44480</v>
+        <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3446,14 +3446,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32735-2021</t>
+          <t>A 56569-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44375</v>
+        <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,14 +3560,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 74214-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45474</v>
+        <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>19.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3617,14 +3617,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45323</v>
+        <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3674,14 +3674,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 74214-2021</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44553</v>
+        <v>45169</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>19.8</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3731,14 +3731,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 10454-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3788,14 +3788,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>17.9</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3845,14 +3845,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45735</v>
+        <v>45474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3902,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45583</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3959,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44929</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4016,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45502</v>
+        <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4073,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45299</v>
+        <v>45670</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4130,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>45887</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4187,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10454-2025</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45720.7090625</v>
+        <v>44887</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4244,14 +4244,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45735</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4301,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45377</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4358,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45377</v>
+        <v>45281</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45713</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>17.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4472,14 +4472,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45582</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4529,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4643,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4700,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>45895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4757,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44879</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4814,14 +4814,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45115</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44887</v>
+        <v>45189</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44498</v>
+        <v>45898</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45097</v>
+        <v>45502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5042,14 +5042,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45118</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45581</v>
+        <v>45016</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45097</v>
+        <v>45581</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45099</v>
+        <v>44887</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5327,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45345</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45281</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45022</v>
+        <v>45596</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44693</v>
+        <v>45735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45583</v>
+        <v>45735</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44613</v>
+        <v>44864</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45582</v>
+        <v>45323</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5783,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45763</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5840,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45117</v>
+        <v>45915</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5897,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44259</v>
+        <v>44973</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45075</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6075,7 +6075,7 @@
         <v>45210</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6125,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45115</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44257</v>
+        <v>45887</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45169</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45016</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6467,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45012</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44864</v>
+        <v>45705</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6581,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45345</v>
+        <v>45930</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6638,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45596</v>
+        <v>45075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45118</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6752,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45713</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6809,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6866,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44839</v>
+        <v>45377</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6923,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6980,14 +6980,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45763</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45163</v>
+        <v>45022</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7151,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7208,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45169</v>
+        <v>45323</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7265,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45189</v>
+        <v>45972</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7322,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45012</v>
+        <v>45972</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7379,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45323</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7436,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45670</v>
+        <v>45303</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7493,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45631</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7550,14 +7550,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44746</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7607,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>45981</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7664,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44887</v>
+        <v>45115</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7778,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45118</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7835,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45115</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7892,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45303</v>
+        <v>45099</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7949,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45705</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8006,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45706</v>
+        <v>45061</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8063,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8120,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45887</v>
+        <v>45994</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8177,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45293</v>
+        <v>44498</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8234,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45887</v>
+        <v>45097</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8291,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>46047</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8348,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>44879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8405,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8462,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45895</v>
+        <v>45377</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8519,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45120</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45898</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>45407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45061</v>
+        <v>45118</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45118</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44973</v>
+        <v>45583</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>45169</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9032,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45407</v>
+        <v>45706</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9089,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45915</v>
+        <v>45120</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45583</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9203,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>44746</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>44259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45436</v>
+        <v>45117</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45930</v>
+        <v>44613</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45456</v>
+        <v>45293</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>45299</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45590</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>44693</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45972</v>
+        <v>45631</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45972</v>
+        <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45981</v>
+        <v>44929</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45994</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46047</v>
+        <v>45456</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45590</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z158"/>
+  <dimension ref="A1:Z159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45707</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 8133-2026</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46064.30774305556</v>
+        <v>46041</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,17 +1833,17 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1867,31 +1867,35 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
@@ -1905,7 +1909,7 @@
         <v>45841.54231481482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,14 +1991,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 8133-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45210</v>
+        <v>46064.30774305556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,13 +2011,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2041,45 +2045,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50684-2023</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2096,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2126,45 +2130,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 50684-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46041</v>
+        <v>45210</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2177,7 +2181,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2186,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2201,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2211,35 +2215,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
         <v>45705</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44553</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45169</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>45700.46334490741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>45474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3959,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4016,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45118</v>
+        <v>45583</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4073,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45670</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4130,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45887</v>
+        <v>45118</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4187,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44887</v>
+        <v>45670</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4244,14 +4244,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4301,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45895</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4358,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45281</v>
+        <v>44887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>45898</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>17.9</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>45582</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4529,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4643,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45281</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4700,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45895</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>17.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4757,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4814,14 +4814,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4871,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45189</v>
+        <v>46047</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45502</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5042,14 +5042,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45016</v>
+        <v>45189</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45581</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5270,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44887</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5327,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45345</v>
+        <v>45502</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>45930</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45596</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45735</v>
+        <v>45016</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45735</v>
+        <v>45581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44864</v>
+        <v>44887</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45323</v>
+        <v>45345</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>45596</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5790,7 +5790,7 @@
         <v>45882.3615625</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5840,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45915</v>
+        <v>45735</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5897,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44973</v>
+        <v>45735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>44864</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6068,14 +6068,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45210</v>
+        <v>45323</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6125,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45887</v>
+        <v>44973</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>45972</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45972</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6467,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45012</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45705</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6581,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45930</v>
+        <v>45210</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6638,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45075</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>45981</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6752,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45713</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6809,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6866,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45377</v>
+        <v>45012</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6923,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 9055-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>46069.55903935185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6980,14 +6980,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45763</v>
+        <v>45705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45022</v>
+        <v>45075</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45097</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7151,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7208,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45323</v>
+        <v>45713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7265,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45972</v>
+        <v>45994</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7322,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45972</v>
+        <v>45377</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7379,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7436,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45303</v>
+        <v>45763</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7493,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45022</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7550,14 +7550,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45097</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7607,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45981</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7664,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45115</v>
+        <v>45323</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45163</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7778,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45118</v>
+        <v>45303</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7835,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45115</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7892,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45099</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7949,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45115</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8006,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45061</v>
+        <v>45163</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8063,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45118</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8120,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45994</v>
+        <v>45115</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8177,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44498</v>
+        <v>45099</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8234,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45097</v>
+        <v>45061</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8291,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46047</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8348,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44879</v>
+        <v>44498</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8405,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8462,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45377</v>
+        <v>44879</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8519,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>45377</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45407</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45118</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45583</v>
+        <v>45118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45169</v>
+        <v>45583</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9032,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45706</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45120</v>
+        <v>45169</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>45706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9203,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45120</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44746</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44259</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45117</v>
+        <v>44746</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44613</v>
+        <v>44259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45293</v>
+        <v>45117</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45299</v>
+        <v>44613</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9602,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45293</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44693</v>
+        <v>45299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45631</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44257</v>
+        <v>44693</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44929</v>
+        <v>45631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45436</v>
+        <v>44929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45456</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10058,116 +10058,173 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
+          <t>A 20635-2024</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>A 23980-2024</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>45456</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
           <t>A 55748-2024</t>
         </is>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B159" s="1" t="n">
         <v>45623.3237962963</v>
       </c>
-      <c r="C157" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
+      <c r="C159" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
         <v>0.9</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0</v>
-      </c>
-      <c r="P157" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>0</v>
-      </c>
-      <c r="R157" s="2" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>A 48197-2024</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>45590</v>
-      </c>
-      <c r="C158" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0</v>
-      </c>
-      <c r="P158" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>0</v>
-      </c>
-      <c r="R158" s="2" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45707</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 33520-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46041</v>
+        <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1871,45 +1871,45 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33520-2025</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45841.54231481482</v>
+        <v>46041</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1960,31 +1960,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
         <v>46064.30774305556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45210</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45705</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44553</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45169</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,14 +3788,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45456</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3845,14 +3845,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45474</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3902,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45590</v>
+        <v>45972</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3959,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45887</v>
+        <v>45972</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4016,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45583</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4073,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4130,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45118</v>
+        <v>45590</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4187,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45670</v>
+        <v>45474</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>45891.5194675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4301,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45895</v>
+        <v>45583</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4358,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44887</v>
+        <v>45895</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45898</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4472,14 +4472,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45582</v>
+        <v>45898</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4529,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>45670</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4643,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45281</v>
+        <v>45981</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4700,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>44887</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>17.9</v>
+        <v>4.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4757,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>45912.64872685185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4871,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46047</v>
+        <v>45915</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45915</v>
+        <v>45582</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5042,14 +5042,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45281</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>17.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45189</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5327,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45502</v>
+        <v>45930</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45930</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45016</v>
+        <v>45189</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45581</v>
+        <v>45502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44887</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45345</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45596</v>
+        <v>45016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5783,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>45581</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5840,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45735</v>
+        <v>44887</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5897,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45735</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44864</v>
+        <v>45345</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45596</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6068,14 +6068,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45323</v>
+        <v>45735</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6125,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45887</v>
+        <v>45735</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44973</v>
+        <v>44864</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45323</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45972</v>
+        <v>44973</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45972</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6467,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45210</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6581,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45210</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6638,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45981</v>
+        <v>45887</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6752,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6809,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6866,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45012</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6923,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9055-2026</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46069.55903935185</v>
+        <v>45012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>45705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45075</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>45715.62634259259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7151,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45713</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7208,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45713</v>
+        <v>46047</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7265,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45994</v>
+        <v>45377</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7322,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45377</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7379,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>45763</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7436,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45763</v>
+        <v>45022</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7493,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45022</v>
+        <v>45097</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7550,14 +7550,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45097</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7607,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7664,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45323</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>45323</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7778,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 9055-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45303</v>
+        <v>46069.55903935185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7835,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7892,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45303</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7949,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45115</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8006,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45163</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8063,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45118</v>
+        <v>45115</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8120,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45115</v>
+        <v>45163</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8177,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45099</v>
+        <v>45118</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8234,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45061</v>
+        <v>45115</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8291,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45099</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8348,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44498</v>
+        <v>45061</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8405,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45097</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8462,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44879</v>
+        <v>44498</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8519,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45097</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45377</v>
+        <v>44879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>45377</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45407</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45118</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45583</v>
+        <v>45118</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9032,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45169</v>
+        <v>45583</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45706</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9203,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45120</v>
+        <v>45169</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>45706</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45120</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44746</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44259</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45117</v>
+        <v>44746</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44613</v>
+        <v>44259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45293</v>
+        <v>45117</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45299</v>
+        <v>44613</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,14 +9716,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45293</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44693</v>
+        <v>45299</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45631</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44257</v>
+        <v>44693</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44929</v>
+        <v>45631</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45436</v>
+        <v>44929</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45456</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>45436</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z159"/>
+  <dimension ref="A1:Z160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,14 +937,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 584-2025</t>
+          <t>A 18559-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45664.57672453704</v>
+        <v>45763</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -990,317 +990,317 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Gulsparv
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 28874-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Blåmossa
+Stubbspretmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 584-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45664.57672453704</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 28874-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Stubbspretmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 18559-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45763</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Gulsparv
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 29157-2023</t>
+          <t>A 8065-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45105.47994212963</v>
+        <v>45707</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,19 +1313,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1340,129 +1340,129 @@
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 29157-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45105.47994212963</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 8065-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45707</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
         <v/>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 33520-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>45841.54231481482</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,45 +1782,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33520-2025</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45841.54231481482</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,10 +1837,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1867,49 +1871,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46041</v>
+        <v>45210</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1956,49 +1956,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 8133-2026</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46064.30774305556</v>
+        <v>46041</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,17 +2007,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2035,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2045,45 +2041,49 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 8133-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45210</v>
+        <v>46064.30774305556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,13 +2096,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2130,31 +2130,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45210</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2246,14 +2246,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45705</v>
+        <v>44553</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2300,45 +2300,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44553</v>
+        <v>45705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2351,7 +2355,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2360,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2375,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2385,35 +2389,31 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,14 +3617,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44839</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3674,14 +3674,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45169</v>
+        <v>45713</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,14 +3788,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45456</v>
+        <v>45377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3845,14 +3845,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3902,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45972</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3959,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45972</v>
+        <v>44879</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4016,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>45583</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4073,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45887</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4130,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45590</v>
+        <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4187,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45474</v>
+        <v>45887</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4244,14 +4244,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4301,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45583</v>
+        <v>45887</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4358,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45895</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45456</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4472,14 +4472,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45898</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4529,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45118</v>
+        <v>45895</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45670</v>
+        <v>45898</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4643,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45981</v>
+        <v>45281</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4700,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44887</v>
+        <v>45474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4757,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>45323</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4814,14 +4814,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>45590</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4871,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45915</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45582</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.8</v>
+        <v>17.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>45502</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5042,14 +5042,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45281</v>
+        <v>45299</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>17.9</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5327,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45930</v>
+        <v>44887</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45972</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45189</v>
+        <v>45972</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45502</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5612,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45097</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45016</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5783,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5840,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44887</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5897,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45930</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45345</v>
+        <v>45099</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45596</v>
+        <v>45022</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6068,14 +6068,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45735</v>
+        <v>44693</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6125,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45735</v>
+        <v>45981</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44864</v>
+        <v>45583</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45323</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>44259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44973</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6467,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45994</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45210</v>
+        <v>45115</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6581,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6638,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45887</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6752,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45994</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6809,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6866,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6923,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45012</v>
+        <v>45169</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6980,14 +6980,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45705</v>
+        <v>45670</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45075</v>
+        <v>46047</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7151,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45713</v>
+        <v>45705</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7208,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46047</v>
+        <v>45706</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7265,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45377</v>
+        <v>45735</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7322,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7379,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45763</v>
+        <v>44929</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7436,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45022</v>
+        <v>45735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7493,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45097</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7550,14 +7550,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7607,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7664,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45323</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7778,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9055-2026</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46069.55903935185</v>
+        <v>45115</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7835,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>44498</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7892,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45303</v>
+        <v>45118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7949,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45581</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8006,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 9055-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>46069.55903935185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8063,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45115</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8120,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 9803-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45163</v>
+        <v>46072.6206712963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8177,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45118</v>
+        <v>44613</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8234,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45115</v>
+        <v>45763</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8291,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45099</v>
+        <v>45117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8348,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45061</v>
+        <v>45075</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8405,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45210</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8462,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44498</v>
+        <v>44257</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8519,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45097</v>
+        <v>45169</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44879</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45118</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45377</v>
+        <v>44839</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45163</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45189</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45407</v>
+        <v>45631</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45118</v>
+        <v>44746</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9032,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>44887</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45583</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45303</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9203,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45169</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45706</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45120</v>
+        <v>45016</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>44864</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45345</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44746</v>
+        <v>45596</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44259</v>
+        <v>45012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45117</v>
+        <v>45323</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44613</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>45293</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45299</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44693</v>
+        <v>45120</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45631</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44257</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44929</v>
+        <v>45061</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>45118</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10135,65 +10135,65 @@
         </is>
       </c>
       <c r="G158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>A 7811-2023</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
         <v>0.9</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0</v>
-      </c>
-      <c r="P158" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>0</v>
-      </c>
-      <c r="R158" s="2" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>A 20635-2024</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>45436</v>
-      </c>
-      <c r="C159" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>4.8</v>
-      </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
@@ -10225,6 +10225,63 @@
         <v>0</v>
       </c>
       <c r="R159" s="2" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>A 16314-2024</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>45407</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,14 +937,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 18559-2025</t>
+          <t>A 584-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45763</v>
+        <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -990,317 +990,317 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 28874-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Blåmossa
+Stubbspretmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 18559-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Gulsparv
 Gröngöling</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 28874-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Stubbspretmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 584-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45664.57672453704</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 8065-2025</t>
+          <t>A 29157-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45707</v>
+        <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,19 +1313,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>6.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1340,129 +1340,129 @@
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 8065-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45707</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot
 Svinrot</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 29157-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45105.47994212963</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
         <v/>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 33520-2025</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45841.54231481482</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,49 +1782,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 33520-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1837,10 +1833,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1871,45 +1867,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45210</v>
+        <v>46041</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1956,45 +1956,49 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 8133-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46041</v>
+        <v>46064.30774305556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,16 +2011,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2031,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2041,49 +2045,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 8133-2026</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46064.30774305556</v>
+        <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,13 +2096,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2130,31 +2130,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45210</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2246,14 +2246,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44553</v>
+        <v>45705</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2300,49 +2300,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45705</v>
+        <v>44553</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2355,7 +2351,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2364,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2379,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2389,31 +2385,35 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,14 +3104,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13873-2021</t>
+          <t>A 24691-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44277.39847222222</v>
+        <v>44340</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3161,14 +3161,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 24691-2021</t>
+          <t>A 36036-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44340</v>
+        <v>44802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3218,14 +3218,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36036-2022</t>
+          <t>A 13873-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44802</v>
+        <v>44277.39847222222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,14 +3617,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3674,14 +3674,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45713</v>
+        <v>45169</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,14 +3788,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45377</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3845,14 +3845,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45377</v>
+        <v>45474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3902,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>45583</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3959,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44879</v>
+        <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4016,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45583</v>
+        <v>45670</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4073,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4130,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45097</v>
+        <v>44887</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4187,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45887</v>
+        <v>45281</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4244,14 +4244,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45436</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4301,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45887</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>17.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4358,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45582</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45456</v>
+        <v>45887</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4472,14 +4472,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4529,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45895</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45898</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4643,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45281</v>
+        <v>45895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4700,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45474</v>
+        <v>45189</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4757,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45323</v>
+        <v>45898</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4814,14 +4814,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45590</v>
+        <v>45502</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4871,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>17.9</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45502</v>
+        <v>45016</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5042,14 +5042,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45299</v>
+        <v>45581</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>45908.57619212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5156,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>44887</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>45912.64872685185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44887</v>
+        <v>45915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45915</v>
+        <v>45345</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45972</v>
+        <v>45596</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45972</v>
+        <v>45735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45735</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45097</v>
+        <v>44864</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>45323</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5783,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45582</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5840,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>45930</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5897,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45930</v>
+        <v>44973</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45099</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45022</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6068,14 +6068,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44693</v>
+        <v>45210</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6125,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45981</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45583</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44259</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45012</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6467,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45994</v>
+        <v>45705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45115</v>
+        <v>45075</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6581,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6638,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45713</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6752,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>45972</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6809,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45972</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6866,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45377</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6923,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45169</v>
+        <v>45981</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6980,14 +6980,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45670</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46047</v>
+        <v>45763</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45022</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7151,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45705</v>
+        <v>45097</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7208,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45706</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7265,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45735</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7322,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45323</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7379,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44929</v>
+        <v>45994</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7436,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45735</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7493,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45303</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7550,14 +7550,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7607,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7664,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>46047</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>45115</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7778,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45115</v>
+        <v>45163</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7835,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44498</v>
+        <v>45118</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7892,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45118</v>
+        <v>45115</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7949,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45581</v>
+        <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8006,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 9055-2026</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46069.55903935185</v>
+        <v>45061</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>44973.77732638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8120,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 9803-2026</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46072.6206712963</v>
+        <v>44498</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8177,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44613</v>
+        <v>45097</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8234,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45763</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8291,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45117</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8348,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 9055-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45075</v>
+        <v>46069.55903935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8405,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45210</v>
+        <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8462,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44257</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8519,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45169</v>
+        <v>45377</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 9803-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45118</v>
+        <v>46072.6206712963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44839</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45163</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45189</v>
+        <v>45118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45631</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44746</v>
+        <v>45583</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9032,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44887</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45169</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45303</v>
+        <v>45706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9203,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>45120</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45016</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44864</v>
+        <v>44746</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45345</v>
+        <v>44259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45596</v>
+        <v>45117</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45012</v>
+        <v>44613</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45323</v>
+        <v>45293</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45293</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>44693</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45120</v>
+        <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>44929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45061</v>
+        <v>45436</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45118</v>
+        <v>45456</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44973</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,14 +10229,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45407</v>
+        <v>45590</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45707</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>46041</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>46064.30774305556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45210</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45705</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44553</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44340</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45169</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>45700.46334490741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>45474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>45583</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>45670</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44593.68116898148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44887</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>45281</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45454.61513888889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45463.71800925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45582</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45887</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45622.48444444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45708.2620949074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45891.5194675926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>45895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>45189</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>45898</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>45502</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>45835.4065625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44720.50751157408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>45016</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>45581</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>45908.57619212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44887</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45736.77020833334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>45912.64872685185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45345</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45596</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45735</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44864</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>45323</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>45926.57591435185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45929.67606481481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45930</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44973</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44900.69418981481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44830.55204861111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>45210</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>45461.46796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45882.3615625</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>45462.46355324074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>45328.66599537037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>45012</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>45705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>45075</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45954.51563657408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>45715.62634259259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45713</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45972</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45972</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45377</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45981</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>45680.68038194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45763</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>45022</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>45097</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>45313.63804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>46037.41112268518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>45323</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>45994</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>45103.45262731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>45303</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>45120.56152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44900.69137731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>46047</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>45115</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45163</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45118</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45115</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45061</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44973.77732638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>44498</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45097</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
         <v>46062.67539351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>46062.68539351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>46069.55903935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>45236.34621527778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45377</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>44693.50188657407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>46072.6206712963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45687.56328703704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45117.89738425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>45140.38099537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45583</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45456.30621527778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45169</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45120</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45483.78387731482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45632.43736111111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44746</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>44259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45117</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44613</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45293</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45595.36711805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44693</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45776.32377314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>45436</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45456</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45623.3237962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45590</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45707</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>46041</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>46064.30774305556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45210</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45705</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44553</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44340</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45169</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45720.7090625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>45700.46334490741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>45474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>45583</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>45670</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44593.68116898148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>44887</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>45281</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45454.61513888889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45463.71800925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45582</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45887</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45622.48444444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45708.2620949074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45891.5194675926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>45895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>45189</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>45898</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>45502</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>45835.4065625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44720.50751157408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>45016</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>45581</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>45908.57619212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44887</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45736.77020833334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>45912.64872685185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45915</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45345</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45596</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45735</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44864</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>45323</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>45926.57591435185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45929.67606481481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45930</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44973</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44900.69418981481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44830.55204861111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>45210</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>45461.46796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45882.3615625</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45887</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>45462.46355324074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>45328.66599537037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>45012</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>45705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>45075</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45954.51563657408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>45715.62634259259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45713</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45972</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45972</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45377</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45981</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>45680.68038194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45763</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>45022</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>45097</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>45313.63804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>46037.41112268518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>45323</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>45994</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>45103.45262731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>45303</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>45120.56152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44900.69137731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>46047</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>45115</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45163</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45118</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45115</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45061</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44973.77732638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>44498</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45097</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
         <v>46062.67539351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>46062.68539351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>46069.55903935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>45236.34621527778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45377</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>44693.50188657407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>46072.6206712963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45687.56328703704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45117.89738425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>45140.38099537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45583</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45456.30621527778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45169</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45706</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45120</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45483.78387731482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45632.43736111111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44746</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>44259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45117</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44613</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45293</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45595.36711805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44693</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45631</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45776.32377314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>45436</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45456</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45623.3237962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45590</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,14 +753,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 31991-2025</t>
+          <t>A 2931-2026</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45835</v>
+        <v>46038.58359953704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -773,39 +773,131 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15.1</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot
+Entita
+Spillkråka
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 2931-2026 artfynd.xlsx", "A 2931-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 2931-2026 karta.png", "A 2931-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 2931-2026 FSC-klagomål.docx", "A 2931-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 2931-2026 FSC-klagomål mail.docx", "A 2931-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 2931-2026 tillsynsbegäran.docx", "A 2931-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 2931-2026 tillsynsbegäran mail.docx", "A 2931-2026")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 2931-2026 prioriterade fågelarter.docx", "A 2931-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 31991-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Ärtsångare
 Blanksvart trämyra
@@ -813,138 +905,46 @@
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 31991-2025 artfynd.xlsx", "A 31991-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 31991-2025 karta.png", "A 31991-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 31991-2025 FSC-klagomål.docx", "A 31991-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 31991-2025 FSC-klagomål mail.docx", "A 31991-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 31991-2025 tillsynsbegäran.docx", "A 31991-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 31991-2025 tillsynsbegäran mail.docx", "A 31991-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 31991-2025 prioriterade fågelarter.docx", "A 31991-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 2931-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46038.58359953704</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot
-Entita
-Spillkråka
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 2931-2026 artfynd.xlsx", "A 2931-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 2931-2026 karta.png", "A 2931-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 2931-2026 FSC-klagomål.docx", "A 2931-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 2931-2026 FSC-klagomål mail.docx", "A 2931-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 2931-2026 tillsynsbegäran.docx", "A 2931-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 2931-2026 tillsynsbegäran mail.docx", "A 2931-2026")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 2931-2026 prioriterade fågelarter.docx", "A 2931-2026")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 584-2025</t>
+          <t>A 28874-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45664.57672453704</v>
+        <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,16 +957,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -990,212 +990,212 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Blåmossa
+Stubbspretmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 584-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45664.57672453704</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 28874-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Stubbspretmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
         <v/>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,14 +1293,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 29157-2023</t>
+          <t>A 8065-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45105.47994212963</v>
+        <v>45707</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,19 +1313,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1340,129 +1340,129 @@
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 29157-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45105.47994212963</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 8065-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45707</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
         <v/>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>45210</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,16 +1748,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1782,45 +1782,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33520-2025</t>
+          <t>A 50684-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45841.54231481482</v>
+        <v>45210</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1867,49 +1867,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 33520-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46041</v>
+        <v>45841.54231481482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,7 +1918,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1960,45 +1956,45 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 8133-2026</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46064.30774305556</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,17 +2007,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2035,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2045,45 +2041,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45210</v>
+        <v>44553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2092,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2105,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2120,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2130,45 +2126,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 50684-2023</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45210</v>
+        <v>45705</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2215,45 +2215,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45705</v>
+        <v>46041</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2300,45 +2300,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 8133-2026</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44553</v>
+        <v>46064.30774305556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2351,16 +2355,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2375,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2385,35 +2389,31 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,14 +2648,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44473-2022</t>
+          <t>A 61263-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44840.33121527778</v>
+        <v>44498.5819212963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2705,14 +2705,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 41769-2022</t>
+          <t>A 61269-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44827</v>
+        <v>44498.58678240741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2762,14 +2762,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61263-2021</t>
+          <t>A 41769-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44498.5819212963</v>
+        <v>44827</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2819,14 +2819,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 61269-2021</t>
+          <t>A 56094-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44498.58678240741</v>
+        <v>44477</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2876,14 +2876,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 56094-2021</t>
+          <t>A 32735-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44477</v>
+        <v>44375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2933,14 +2933,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 32735-2021</t>
+          <t>A 11775-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44375</v>
+        <v>44634.59737268519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,14 +3047,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11775-2022</t>
+          <t>A 24691-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44634.59737268519</v>
+        <v>44340</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3104,14 +3104,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24691-2021</t>
+          <t>A 36036-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44340</v>
+        <v>44802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3161,14 +3161,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 36036-2022</t>
+          <t>A 36041-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44802</v>
+        <v>44802.69045138889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3218,14 +3218,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13873-2021</t>
+          <t>A 44473-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44277.39847222222</v>
+        <v>44840.33121527778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3275,14 +3275,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 36041-2022</t>
+          <t>A 13873-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44802.69045138889</v>
+        <v>44277.39847222222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,14 +3389,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13876-2021</t>
+          <t>A 56569-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44277.40048611111</v>
+        <v>44480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3446,14 +3446,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 56569-2021</t>
+          <t>A 13876-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44480</v>
+        <v>44277.40048611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,14 +3560,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 74214-2021</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44553</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>19.8</v>
+        <v>4.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3617,14 +3617,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 74214-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44839</v>
+        <v>44553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>19.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3674,14 +3674,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 10454-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45169</v>
+        <v>45720.7090625</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3731,14 +3731,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10454-2025</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45720.7090625</v>
+        <v>45377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3788,14 +3788,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3845,14 +3845,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45474</v>
+        <v>45713</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3902,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45583</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3959,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45118</v>
+        <v>45099</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4016,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45670</v>
+        <v>44879</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4073,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45022</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4130,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44887</v>
+        <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4187,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45281</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4244,14 +4244,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4301,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>44693</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>17.9</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4358,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45582</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45887</v>
+        <v>45583</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4472,14 +4472,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4529,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45169</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4643,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45895</v>
+        <v>45670</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4700,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45189</v>
+        <v>45705</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4757,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45898</v>
+        <v>45706</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4814,14 +4814,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45502</v>
+        <v>45735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4871,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>44259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45016</v>
+        <v>44929</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5042,14 +5042,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45581</v>
+        <v>45281</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44887</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45735</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5327,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45915</v>
+        <v>45115</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45345</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45596</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45735</v>
+        <v>45115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45735</v>
+        <v>45474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44864</v>
+        <v>45323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45323</v>
+        <v>44498</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5783,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>45118</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5840,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45930</v>
+        <v>45763</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5897,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44973</v>
+        <v>45581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45163</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6068,14 +6068,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45210</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6125,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>45075</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45887</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>17.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45210</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45189</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45012</v>
+        <v>44257</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6467,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45705</v>
+        <v>45169</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45075</v>
+        <v>45502</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6581,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45299</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6638,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45713</v>
+        <v>45631</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6752,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45972</v>
+        <v>44746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6809,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45972</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6866,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45377</v>
+        <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6923,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45981</v>
+        <v>45887</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6980,14 +6980,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>44887</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45763</v>
+        <v>45887</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45022</v>
+        <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7151,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45097</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7208,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>45303</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7265,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7322,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45323</v>
+        <v>44839</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7379,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45994</v>
+        <v>45895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7436,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>45898</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7493,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45303</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7550,14 +7550,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7607,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7664,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46047</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45115</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7778,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45163</v>
+        <v>45016</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7835,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45118</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7892,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45115</v>
+        <v>45915</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7949,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45099</v>
+        <v>44864</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8006,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45061</v>
+        <v>45345</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8063,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45596</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8120,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44498</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8177,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45097</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8234,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>45930</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8291,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45012</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8348,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9055-2026</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46069.55903935185</v>
+        <v>45323</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8405,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44879</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8462,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45293</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8519,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45377</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 9803-2026</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46072.6206712963</v>
+        <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45407</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45118</v>
+        <v>45061</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45583</v>
+        <v>44973</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9032,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45972</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45169</v>
+        <v>45972</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45706</v>
+        <v>45407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9203,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45120</v>
+        <v>45583</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45981</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44746</v>
+        <v>45436</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44259</v>
+        <v>45994</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45117</v>
+        <v>45456</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44613</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45293</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45299</v>
+        <v>45590</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>46047</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44693</v>
+        <v>45582</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45631</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44257</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44929</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 9055-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45436</v>
+        <v>46069.55903935185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45456</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 9803-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>46072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45590</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,14 +753,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2931-2026</t>
+          <t>A 31991-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46038.58359953704</v>
+        <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -773,39 +773,131 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>15.1</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ärtsångare
+Blanksvart trämyra
+Rostfläck
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 31991-2025 artfynd.xlsx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 31991-2025 karta.png", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 31991-2025 FSC-klagomål.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 31991-2025 FSC-klagomål mail.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 31991-2025 tillsynsbegäran.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 31991-2025 tillsynsbegäran mail.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 31991-2025 prioriterade fågelarter.docx", "A 31991-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2931-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46038.58359953704</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Småvänderot
 Entita
@@ -813,138 +905,46 @@
 Grönsiska</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 2931-2026 artfynd.xlsx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 2931-2026 karta.png", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 2931-2026 FSC-klagomål.docx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 2931-2026 FSC-klagomål mail.docx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 2931-2026 tillsynsbegäran.docx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 2931-2026 tillsynsbegäran mail.docx", "A 2931-2026")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 2931-2026 prioriterade fågelarter.docx", "A 2931-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 31991-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45835</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ärtsångare
-Blanksvart trämyra
-Rostfläck
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 31991-2025 artfynd.xlsx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 31991-2025 karta.png", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 31991-2025 FSC-klagomål.docx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 31991-2025 FSC-klagomål mail.docx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 31991-2025 tillsynsbegäran.docx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 31991-2025 tillsynsbegäran mail.docx", "A 31991-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 31991-2025 prioriterade fågelarter.docx", "A 31991-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 28874-2023</t>
+          <t>A 584-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45104</v>
+        <v>45664.57672453704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,17 +957,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -990,317 +990,317 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 18559-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Gulsparv
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 28874-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Blåmossa
 Stubbspretmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 584-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45664.57672453704</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 18559-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45763</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Gulsparv
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 8065-2025</t>
+          <t>A 29157-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45707</v>
+        <v>45105.47994212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,19 +1313,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>6.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1340,129 +1340,129 @@
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 8065-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45707</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot
 Svinrot</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 29157-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45105.47994212963</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
         <v/>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45210</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,17 +1748,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1782,45 +1782,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50684-2023</t>
+          <t>A 33520-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45210</v>
+        <v>45841.54231481482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1867,45 +1867,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33520-2025</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45841.54231481482</v>
+        <v>46041</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1918,7 +1922,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1956,45 +1960,45 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 8133-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>46064.30774305556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,16 +2011,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2031,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2041,45 +2045,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44553</v>
+        <v>45210</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2096,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2101,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2116,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2126,49 +2130,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 50684-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45705</v>
+        <v>45210</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2215,45 +2215,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46041</v>
+        <v>45705</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2300,49 +2300,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 8133-2026</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46064.30774305556</v>
+        <v>44553</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2355,17 +2351,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2389,31 +2385,35 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,14 +2648,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 61263-2021</t>
+          <t>A 44473-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44498.5819212963</v>
+        <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2705,14 +2705,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 61269-2021</t>
+          <t>A 41769-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44498.58678240741</v>
+        <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2762,14 +2762,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41769-2022</t>
+          <t>A 61263-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44827</v>
+        <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2819,14 +2819,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56094-2021</t>
+          <t>A 61269-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44477</v>
+        <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2876,14 +2876,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32735-2021</t>
+          <t>A 56094-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44375</v>
+        <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2933,14 +2933,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11775-2022</t>
+          <t>A 32735-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44634.59737268519</v>
+        <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,14 +3047,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 24691-2021</t>
+          <t>A 11775-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44340</v>
+        <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3104,14 +3104,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 36036-2022</t>
+          <t>A 13873-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44802</v>
+        <v>44277.39847222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3161,14 +3161,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 36041-2022</t>
+          <t>A 24691-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44802.69045138889</v>
+        <v>44340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3218,14 +3218,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44473-2022</t>
+          <t>A 36036-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44840.33121527778</v>
+        <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3275,14 +3275,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 13873-2021</t>
+          <t>A 36041-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44277.39847222222</v>
+        <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,14 +3389,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 56569-2021</t>
+          <t>A 13876-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44480</v>
+        <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3446,14 +3446,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13876-2021</t>
+          <t>A 56569-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44277.40048611111</v>
+        <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,14 +3560,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 74214-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>19.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3617,14 +3617,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 74214-2021</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44553</v>
+        <v>45169</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>19.8</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3674,14 +3674,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10454-2025</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45720.7090625</v>
+        <v>44839</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3731,14 +3731,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45377</v>
+        <v>45631</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3788,14 +3788,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45377</v>
+        <v>44257</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3845,14 +3845,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45713</v>
+        <v>44929</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3902,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 10454-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>45720.7090625</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3959,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45099</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4016,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44879</v>
+        <v>45887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4073,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45022</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4130,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45097</v>
+        <v>45436</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4187,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45474</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4244,14 +4244,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45456</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4301,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44693</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4358,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45583</v>
+        <v>45895</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4472,14 +4472,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45583</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4529,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45590</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45169</v>
+        <v>45898</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4643,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45670</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4700,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45705</v>
+        <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4757,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45706</v>
+        <v>45670</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4814,14 +4814,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45735</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4871,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>44887</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44259</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44929</v>
+        <v>45915</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>45281</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5099,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>17.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45582</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45735</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45115</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>45930</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45115</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45474</v>
+        <v>45189</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45323</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44498</v>
+        <v>45502</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44613</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5783,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45118</v>
+        <v>45016</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5840,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45763</v>
+        <v>45581</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5897,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45581</v>
+        <v>44887</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45117</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45163</v>
+        <v>45345</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6068,14 +6068,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45596</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6125,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45735</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45075</v>
+        <v>45735</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>44864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>17.9</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45210</v>
+        <v>45323</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45189</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44257</v>
+        <v>44973</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6467,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45169</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45502</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6581,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45299</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6638,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45210</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45631</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6752,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44746</v>
+        <v>45887</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6809,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6866,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44887</v>
+        <v>45972</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6923,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45887</v>
+        <v>45972</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6980,14 +6980,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44887</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45887</v>
+        <v>45012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45118</v>
+        <v>45705</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7151,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45075</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7208,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45303</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7265,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45981</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7322,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44839</v>
+        <v>45713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7379,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45895</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7436,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45898</v>
+        <v>45994</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7493,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45377</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7557,7 +7557,7 @@
         <v>45680.68038194445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7607,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45097</v>
+        <v>45763</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7664,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>45022</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7778,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45016</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7835,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>45323</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7892,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45915</v>
+        <v>46047</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7949,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44864</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8006,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45345</v>
+        <v>45303</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8063,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45596</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8120,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8177,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>45115</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8234,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45930</v>
+        <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8291,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45012</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8348,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45323</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8405,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45118</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8462,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45293</v>
+        <v>45115</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8519,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45099</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 9055-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>46069.55903935185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45120</v>
+        <v>45061</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>44498</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>45097</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8861,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45061</v>
+        <v>44879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 9803-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45118</v>
+        <v>46072</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44973</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9032,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45972</v>
+        <v>45377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45972</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45407</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9203,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45583</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.2</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>45407</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45981</v>
+        <v>45118</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45436</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45994</v>
+        <v>45583</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45456</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>45169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45706</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45590</v>
+        <v>45120</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46047</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45582</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>44746</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>44259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45117</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9055-2026</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46069.55903935185</v>
+        <v>45293</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45299</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9803-2026</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46072</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>44693</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,14 +937,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 584-2025</t>
+          <t>A 18559-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45664.57672453704</v>
+        <v>45763</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -990,317 +990,317 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Gulsparv
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 28874-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Blåmossa
+Stubbspretmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 584-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45664.57672453704</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 18559-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45763</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Gulsparv
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 28874-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Stubbspretmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 29157-2023</t>
+          <t>A 8065-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45105.47994212963</v>
+        <v>45707</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,19 +1313,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1340,129 +1340,129 @@
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 29157-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45105.47994212963</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 29157-2023 artfynd.xlsx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 29157-2023 karta.png", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 29157-2023 FSC-klagomål.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 29157-2023 FSC-klagomål mail.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 29157-2023 tillsynsbegäran.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 29157-2023 tillsynsbegäran mail.docx", "A 29157-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 29157-2023 prioriterade fågelarter.docx", "A 29157-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 8065-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45707</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8065-2025 artfynd.xlsx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8065-2025 karta.png", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8065-2025 FSC-klagomål.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8065-2025 FSC-klagomål mail.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8065-2025 tillsynsbegäran.docx", "A 8065-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8065-2025 tillsynsbegäran mail.docx", "A 8065-2025")</f>
         <v/>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>44553</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,45 +1782,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33520-2025</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45841.54231481482</v>
+        <v>45705</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1837,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1842,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1857,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1867,49 +1871,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 50642-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46041</v>
+        <v>45210</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1956,49 +1956,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 8133-2026</t>
+          <t>A 33520-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46064.30774305556</v>
+        <v>45841.54231481482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,17 +2007,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2035,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2045,45 +2041,49 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50642-2023</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45210</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,17 +2096,17 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2130,31 +2130,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50642-2023 artfynd.xlsx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50642-2023 karta.png", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50642-2023 FSC-klagomål.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50642-2023 FSC-klagomål mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50642-2023 tillsynsbegäran.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50642-2023 tillsynsbegäran mail.docx", "A 50642-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>45210</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2246,14 +2246,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45705</v>
+        <v>46041</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2300,45 +2300,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 8133-2026</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44553</v>
+        <v>46064.30774305556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2351,16 +2355,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2375,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2385,35 +2389,31 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,14 +2705,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 41769-2022</t>
+          <t>A 15046-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44827</v>
+        <v>44657.63517361111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2762,14 +2762,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61263-2021</t>
+          <t>A 41769-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44498.5819212963</v>
+        <v>44827</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2819,14 +2819,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 61269-2021</t>
+          <t>A 11775-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44498.58678240741</v>
+        <v>44634.59737268519</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2876,14 +2876,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 56094-2021</t>
+          <t>A 61263-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44477</v>
+        <v>44498.5819212963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2933,14 +2933,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 32735-2021</t>
+          <t>A 61269-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44375</v>
+        <v>44498.58678240741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2990,14 +2990,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 15046-2022</t>
+          <t>A 56094-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44657.63517361111</v>
+        <v>44477</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3047,14 +3047,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11775-2022</t>
+          <t>A 13873-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44634.59737268519</v>
+        <v>44277.39847222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3104,14 +3104,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13873-2021</t>
+          <t>A 32735-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44277.39847222222</v>
+        <v>44375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>44340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,14 +3275,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 36041-2022</t>
+          <t>A 56569-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44802.69045138889</v>
+        <v>44480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3332,14 +3332,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41725-2022</t>
+          <t>A 36041-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44827</v>
+        <v>44802.69045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3389,14 +3389,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13876-2021</t>
+          <t>A 41725-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44277.40048611111</v>
+        <v>44827</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3446,14 +3446,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 56569-2021</t>
+          <t>A 13876-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44480</v>
+        <v>44277.40048611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3503,14 +3503,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11773-2022</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44634.59633101852</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3560,14 +3560,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 74214-2021</t>
+          <t>A 11773-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44553</v>
+        <v>44634.59633101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>19.8</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3617,14 +3617,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 10454-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45169</v>
+        <v>45720.7090625</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3674,14 +3674,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44839</v>
+        <v>44693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3731,14 +3731,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 12150-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45631</v>
+        <v>45377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3788,14 +3788,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 12148-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44257</v>
+        <v>45377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3845,14 +3845,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 74214-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44929</v>
+        <v>44553</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>19.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3902,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10454-2025</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45720.7090625</v>
+        <v>45713</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3959,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>44864</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4016,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45887</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4073,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45583</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4130,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4187,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45474</v>
+        <v>45596</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4244,14 +4244,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45456</v>
+        <v>44879</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>7.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4301,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4358,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>44259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45895</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4472,14 +4472,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45583</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4529,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45590</v>
+        <v>45115</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45898</v>
+        <v>45012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4643,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45323</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4700,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45118</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4757,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45670</v>
+        <v>45281</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4814,14 +4814,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>45474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4871,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44887</v>
+        <v>45323</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>45293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45915</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5042,14 +5042,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45281</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>17.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>45502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>17.9</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45582</v>
+        <v>45299</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5327,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45930</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45189</v>
+        <v>45120</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45502</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>44887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5783,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45016</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5840,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45581</v>
+        <v>45061</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5897,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44887</v>
+        <v>45118</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45169</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45345</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6068,14 +6068,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45596</v>
+        <v>45097</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6125,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45735</v>
+        <v>44973</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45735</v>
+        <v>45670</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44864</v>
+        <v>45407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45323</v>
+        <v>45099</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45022</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44973</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6467,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>44613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>45763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6581,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45583</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6638,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45210</v>
+        <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6752,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45887</v>
+        <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6809,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45705</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6866,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45972</v>
+        <v>45210</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6923,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45972</v>
+        <v>45706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6980,14 +6980,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45436</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45012</v>
+        <v>45735</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45705</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7151,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45075</v>
+        <v>44257</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7208,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>45169</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7265,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45981</v>
+        <v>44929</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7322,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45713</v>
+        <v>45887</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7379,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>45735</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7436,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45994</v>
+        <v>45887</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7493,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12150-2024</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45377</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7550,14 +7550,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7607,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45763</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7664,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45022</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45097</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7778,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>45895</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7835,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45323</v>
+        <v>45115</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7892,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46047</v>
+        <v>45456</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7949,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>45898</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8006,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45303</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8063,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>44498</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8120,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45118</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8177,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45115</v>
+        <v>45581</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8234,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45163</v>
+        <v>45590</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8291,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8348,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8405,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45118</v>
+        <v>45915</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8462,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45115</v>
+        <v>45118</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8519,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45099</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 9055-2026</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46069.55903935185</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45061</v>
+        <v>45930</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>44839</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44498</v>
+        <v>45582</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45097</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44879</v>
+        <v>45163</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 9803-2026</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46072</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>45189</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9032,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12148-2024</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45377</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>45631</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>44746</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9203,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45407</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45118</v>
+        <v>44887</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>45140.38099537037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9431,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45583</v>
+        <v>45972</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45972</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45169</v>
+        <v>45303</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45706</v>
+        <v>45981</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45120</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>45994</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44746</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44259</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45117</v>
+        <v>45016</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44613</v>
+        <v>46047</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45293</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45299</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 9055-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>46069.55903935185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 9803-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44693</v>
+        <v>46072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,14 +937,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 18559-2025</t>
+          <t>A 28874-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45763</v>
+        <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -957,16 +957,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -990,303 +990,303 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Blåmossa
+Stubbspretmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 905-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Boktigerfluga
+Desmeknopp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 584-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45664.57672453704</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 18559-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Gulsparv
 Gröngöling</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 18559-2025 artfynd.xlsx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 18559-2025 karta.png", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 18559-2025 FSC-klagomål.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 18559-2025 FSC-klagomål mail.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 18559-2025 tillsynsbegäran.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 18559-2025 tillsynsbegäran mail.docx", "A 18559-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 18559-2025 prioriterade fågelarter.docx", "A 18559-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 28874-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Stubbspretmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 28874-2023 artfynd.xlsx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 28874-2023 karta.png", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 28874-2023 FSC-klagomål.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 28874-2023 FSC-klagomål mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 28874-2023 tillsynsbegäran.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 28874-2023 tillsynsbegäran mail.docx", "A 28874-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 905-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Boktigerfluga
-Desmeknopp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 905-2024 artfynd.xlsx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 905-2024 karta.png", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 905-2024 FSC-klagomål.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 905-2024 FSC-klagomål mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 905-2024 tillsynsbegäran.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 905-2024 tillsynsbegäran mail.docx", "A 905-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 584-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45664.57672453704</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÄNGELHOLM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 584-2025 artfynd.xlsx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 584-2025 karta.png", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 584-2025 FSC-klagomål.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 584-2025 FSC-klagomål mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 584-2025 tillsynsbegäran.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 584-2025 tillsynsbegäran mail.docx", "A 584-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 584-2025 prioriterade fågelarter.docx", "A 584-2025")</f>
         <v/>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
         <v>45707</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 74272-2021</t>
+          <t>A 33520-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44553</v>
+        <v>45841.54231481482</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1786,45 +1786,45 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7705-2025</t>
+          <t>A 38752-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45705</v>
+        <v>45887.39311342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1837,17 +1837,17 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1871,31 +1871,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
         <v/>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>45210</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,14 +1987,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 33520-2025</t>
+          <t>A 50684-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45841.54231481482</v>
+        <v>45210</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2041,49 +2041,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 33520-2025 artfynd.xlsx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 33520-2025 karta.png", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 33520-2025 FSC-klagomål.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 33520-2025 FSC-klagomål mail.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 33520-2025 tillsynsbegäran.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 33520-2025 tillsynsbegäran mail.docx", "A 33520-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 33520-2025 prioriterade fågelarter.docx", "A 33520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 38752-2025</t>
+          <t>A 3317-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45887.39311342593</v>
+        <v>46041</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,10 +2092,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2130,45 +2126,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 38752-2025 artfynd.xlsx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 38752-2025 karta.png", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 38752-2025 FSC-klagomål.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 38752-2025 FSC-klagomål mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 38752-2025 tillsynsbegäran.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 38752-2025 tillsynsbegäran mail.docx", "A 38752-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 50684-2023</t>
+          <t>A 8133-2026</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45210</v>
+        <v>46064.30774305556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,13 +2181,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2215,45 +2215,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 50684-2023 artfynd.xlsx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 50684-2023 karta.png", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 50684-2023 FSC-klagomål.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 50684-2023 FSC-klagomål mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 50684-2023 tillsynsbegäran.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 50684-2023 tillsynsbegäran mail.docx", "A 50684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3317-2026</t>
+          <t>A 74272-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46041</v>
+        <v>44553</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2304,45 +2304,45 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 3317-2026 artfynd.xlsx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 74272-2021 artfynd.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 3317-2026 karta.png", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 74272-2021 karta.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 3317-2026 FSC-klagomål.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 74272-2021 FSC-klagomål.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 3317-2026 FSC-klagomål mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 74272-2021 FSC-klagomål mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 3317-2026 tillsynsbegäran.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 74272-2021 tillsynsbegäran.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 3317-2026 tillsynsbegäran mail.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 74272-2021 tillsynsbegäran mail.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 3317-2026 prioriterade fågelarter.docx", "A 3317-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/fåglar/A 74272-2021 prioriterade fågelarter.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 8133-2026</t>
+          <t>A 7705-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46064.30774305556</v>
+        <v>45705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>7.1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2389,31 +2389,31 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 8133-2026 artfynd.xlsx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/artfynd/A 7705-2025 artfynd.xlsx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 8133-2026 karta.png", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/kartor/A 7705-2025 karta.png", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 8133-2026 FSC-klagomål.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomål/A 7705-2025 FSC-klagomål.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 8133-2026 FSC-klagomål mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/klagomålsmail/A 7705-2025 FSC-klagomål mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 8133-2026 tillsynsbegäran.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsyn/A 7705-2025 tillsynsbegäran.docx", "A 7705-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 8133-2026 tillsynsbegäran mail.docx", "A 8133-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1292/tillsynsmail/A 7705-2025 tillsynsbegäran mail.docx", "A 7705-2025")</f>
         <v/>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,14 +2705,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 15046-2022</t>
+          <t>A 41769-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44657.63517361111</v>
+        <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2762,14 +2762,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41769-2022</t>
+          <t>A 61263-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44827</v>
+        <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2819,14 +2819,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11775-2022</t>
+          <t>A 61269-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44634.59737268519</v>
+        <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2876,14 +2876,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 61263-2021</t>
+          <t>A 56094-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44498.5819212963</v>
+        <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2933,14 +2933,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 61269-2021</t>
+          <t>A 32735-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44498.58678240741</v>
+        <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2990,14 +2990,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 56094-2021</t>
+          <t>A 15046-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44477</v>
+        <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3047,14 +3047,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13873-2021</t>
+          <t>A 11775-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44277.39847222222</v>
+        <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3104,14 +3104,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 32735-2021</t>
+          <t>A 13873-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44375</v>
+        <v>44277.39847222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>44340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,14 +3275,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 56569-2021</t>
+          <t>A 36041-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44480</v>
+        <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3332,14 +3332,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 36041-2022</t>
+          <t>A 41725-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44802.69045138889</v>
+        <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3389,14 +3389,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41725-2022</t>
+          <t>A 13876-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44827</v>
+        <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3446,14 +3446,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13876-2021</t>
+          <t>A 56569-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44277.40048611111</v>
+        <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3503,14 +3503,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 29436-2024</t>
+          <t>A 11773-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45483.78387731482</v>
+        <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3560,14 +3560,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 11773-2022</t>
+          <t>A 74214-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44634.59633101852</v>
+        <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>19.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3617,14 +3617,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10454-2025</t>
+          <t>A 29436-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45720.7090625</v>
+        <v>45483.78387731482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3674,14 +3674,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19503-2022</t>
+          <t>A 8882-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44693</v>
+        <v>45713</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>45377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>45377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,14 +3845,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 74214-2021</t>
+          <t>A 9578-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44553</v>
+        <v>45715.62634259259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>19.8</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3902,14 +3902,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8882-2025</t>
+          <t>A 53501-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45713</v>
+        <v>44879</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3959,14 +3959,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 49885-2022</t>
+          <t>A 27551-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44864</v>
+        <v>45097</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4016,14 +4016,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9578-2025</t>
+          <t>A 10454-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45715.62634259259</v>
+        <v>45720.7090625</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4073,14 +4073,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46702-2024</t>
+          <t>A 4088-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45583</v>
+        <v>45323</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4130,14 +4130,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7337-2024</t>
+          <t>A 27544-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45345</v>
+        <v>45474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4187,14 +4187,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49610-2024</t>
+          <t>A 31720-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45596</v>
+        <v>45117.89738425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4244,14 +4244,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 53501-2022</t>
+          <t>A 25669-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44879</v>
+        <v>45463.71800925926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.2</v>
+        <v>17.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4301,14 +4301,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27551-2023</t>
+          <t>A 31143-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45097</v>
+        <v>45502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4358,14 +4358,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 10833-2021</t>
+          <t>A 607-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44259</v>
+        <v>45299</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,14 +4415,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49206-2024</t>
+          <t>A 64728-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45595.36711805555</v>
+        <v>45281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4472,14 +4472,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7994-2023</t>
+          <t>A 54709-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44973.77732638889</v>
+        <v>45236.34621527778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4529,14 +4529,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31503-2023</t>
+          <t>A 55544-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45115</v>
+        <v>44887</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4586,14 +4586,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14400-2023</t>
+          <t>A 23976-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45012</v>
+        <v>45456.30621527778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4643,14 +4643,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 4089-2024</t>
+          <t>A 27553-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45323</v>
+        <v>45097</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4700,14 +4700,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 23676-2024</t>
+          <t>A 38856-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45454.61513888889</v>
+        <v>45887</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4757,14 +4757,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 64728-2023</t>
+          <t>A 38848-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45281</v>
+        <v>45887</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4814,14 +4814,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 27544-2024</t>
+          <t>A 28253-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45474</v>
+        <v>45099</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4871,14 +4871,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4088-2024</t>
+          <t>A 16419-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45323</v>
+        <v>45022</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4928,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60-2024</t>
+          <t>A 46487-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45293</v>
+        <v>45582</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31720-2023</t>
+          <t>A 55529-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45117.89738425926</v>
+        <v>45622.48444444445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5042,14 +5042,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25669-2024</t>
+          <t>A 19503-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45463.71800925926</v>
+        <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>17.9</v>
+        <v>5.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 31143-2024</t>
+          <t>A 39810-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45502</v>
+        <v>45891.5194675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 607-2024</t>
+          <t>A 40287-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45299</v>
+        <v>45895</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58150-2024</t>
+          <t>A 41166-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45632.43736111111</v>
+        <v>45898</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 4755-2024</t>
+          <t>A 46702-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45328.66599537037</v>
+        <v>45583</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5327,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58134-2022</t>
+          <t>A 42826-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44900.69137731481</v>
+        <v>45908.57619212963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23328-2022</t>
+          <t>A 32020-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44720.50751157408</v>
+        <v>45835.4065625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 54709-2023</t>
+          <t>A 10833-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45236.34621527778</v>
+        <v>44259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 32364-2023</t>
+          <t>A 49206-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45120.56152777778</v>
+        <v>45595.36711805555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32430-2023</t>
+          <t>A 31503-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45120</v>
+        <v>45115</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28496-2023</t>
+          <t>A 13662-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45103.45262731481</v>
+        <v>45736.77020833334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8139-2025</t>
+          <t>A 43857-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45708.2620949074</v>
+        <v>45912.64872685185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55544-2022</t>
+          <t>A 44012-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44887</v>
+        <v>45915</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5783,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4605-2025</t>
+          <t>A 58134-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45687.56328703704</v>
+        <v>44900.69137731481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5840,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 21488-2023</t>
+          <t>A 23328-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45061</v>
+        <v>44720.50751157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5897,14 +5897,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31908-2023</t>
+          <t>A 32364-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45118</v>
+        <v>45120.56152777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 40275-2023</t>
+          <t>A 46712-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45169</v>
+        <v>45926.57591435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 23976-2024</t>
+          <t>A 47116-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45456.30621527778</v>
+        <v>45929.67606481481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6068,14 +6068,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27553-2023</t>
+          <t>A 47176-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45097</v>
+        <v>45930</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6125,14 +6125,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7811-2023</t>
+          <t>A 8139-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44973</v>
+        <v>45708.2620949074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 1644-2025</t>
+          <t>A 40275-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45670</v>
+        <v>45169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16314-2024</t>
+          <t>A 38028-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45407</v>
+        <v>45882.3615625</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6296,14 +6296,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28253-2023</t>
+          <t>A 1644-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45099</v>
+        <v>45670</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6353,14 +6353,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 16419-2023</t>
+          <t>A 24855-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45022</v>
+        <v>45461.46796296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6410,14 +6410,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24855-2024</t>
+          <t>A 7707-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45461.46796296296</v>
+        <v>45705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6467,14 +6467,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8665-2022</t>
+          <t>A 7871-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44613</v>
+        <v>45706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6524,14 +6524,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18571-2025</t>
+          <t>A 13243-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45763</v>
+        <v>45735</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6581,14 +6581,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46613-2024</t>
+          <t>A 6667-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45583</v>
+        <v>45700.46334490741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.2</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6638,14 +6638,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31709-2023</t>
+          <t>A 308-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45117</v>
+        <v>44929</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20623-2025</t>
+          <t>A 13235-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45776.32377314815</v>
+        <v>45735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6752,14 +6752,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 23227-2023</t>
+          <t>A 58137-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45075</v>
+        <v>44900.69418981481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6809,14 +6809,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7707-2025</t>
+          <t>A 25129-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45705</v>
+        <v>45462.46355324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6866,14 +6866,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50652-2023</t>
+          <t>A 2575-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45210</v>
+        <v>45313.63804398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6923,14 +6923,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7871-2025</t>
+          <t>A 31502-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45706</v>
+        <v>45115</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6980,14 +6980,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20635-2024</t>
+          <t>A 52519-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45436</v>
+        <v>45954.51563657408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7037,14 +7037,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13243-2025</t>
+          <t>A 61094-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45735</v>
+        <v>44498</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7094,14 +7094,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6667-2025</t>
+          <t>A 31907-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45700.46334490741</v>
+        <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7151,14 +7151,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10377-2021</t>
+          <t>A 46286-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44257</v>
+        <v>45581</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7208,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40278-2023</t>
+          <t>A 55707-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45169</v>
+        <v>45972</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7265,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 308-2023</t>
+          <t>A 55728-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44929</v>
+        <v>45972</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7322,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38856-2025</t>
+          <t>A 7994-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45887</v>
+        <v>44973.77732638889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7379,14 +7379,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13235-2025</t>
+          <t>A 57725-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45735</v>
+        <v>45981</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7436,14 +7436,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 38848-2025</t>
+          <t>A 8665-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45887</v>
+        <v>44613</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7493,14 +7493,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5046-2022</t>
+          <t>A 18571-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44593.68116898148</v>
+        <v>45763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7550,14 +7550,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 58137-2022</t>
+          <t>A 31709-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44900.69418981481</v>
+        <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7607,14 +7607,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39810-2025</t>
+          <t>A 23227-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45891.5194675926</v>
+        <v>45075</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7664,14 +7664,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 25129-2024</t>
+          <t>A 50652-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45462.46355324074</v>
+        <v>45210</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2575-2024</t>
+          <t>A 10377-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45313.63804398148</v>
+        <v>44257</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7778,14 +7778,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40287-2025</t>
+          <t>A 40278-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45895</v>
+        <v>45169</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7835,14 +7835,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31502-2023</t>
+          <t>A 60227-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45115</v>
+        <v>45994</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7892,14 +7892,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 23980-2024</t>
+          <t>A 5046-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45456</v>
+        <v>44593.68116898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7949,14 +7949,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41166-2025</t>
+          <t>A 31789-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45898</v>
+        <v>45118</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8006,14 +8006,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 55748-2024</t>
+          <t>A 4977-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45623.3237962963</v>
+        <v>46047</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8063,14 +8063,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61094-2021</t>
+          <t>A 44062-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44498</v>
+        <v>44839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8120,14 +8120,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 31907-2023</t>
+          <t>A 39014-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45118</v>
+        <v>45163</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8177,14 +8177,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46286-2024</t>
+          <t>A 19500-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45581</v>
+        <v>44693.50188657407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8234,14 +8234,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48197-2024</t>
+          <t>A 7856-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45590</v>
+        <v>46062.67539351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8291,14 +8291,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42826-2025</t>
+          <t>A 44448-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45908.57619212963</v>
+        <v>45189</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8348,14 +8348,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 43857-2025</t>
+          <t>A 7859-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45912.64872685185</v>
+        <v>46062.68539351852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8405,14 +8405,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44012-2025</t>
+          <t>A 57923-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45915</v>
+        <v>45631</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8462,14 +8462,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31789-2023</t>
+          <t>A 28264-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45118</v>
+        <v>44746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8519,14 +8519,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46712-2025</t>
+          <t>A 55545-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45926.57591435185</v>
+        <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47116-2025</t>
+          <t>A 9055-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45929.67606481481</v>
+        <v>46069.55903935185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 47176-2025</t>
+          <t>A 34514-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45930</v>
+        <v>45140.38099537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44062-2022</t>
+          <t>A 1299-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44839</v>
+        <v>45303</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 46487-2024</t>
+          <t>A 9803-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45582</v>
+        <v>46072</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55529-2024</t>
+          <t>A 3565-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45622.48444444445</v>
+        <v>45680.68038194445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 39014-2023</t>
+          <t>A 2505-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45163</v>
+        <v>46037.41112268518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 19500-2022</t>
+          <t>A 42105-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44693.50188657407</v>
+        <v>44830.55204861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44448-2023</t>
+          <t>A 15154-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45189</v>
+        <v>45016</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9032,14 +9032,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 32020-2025</t>
+          <t>A 49885-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45835.4065625</v>
+        <v>44864</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9089,14 +9089,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 57923-2024</t>
+          <t>A 7337-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45631</v>
+        <v>45345</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28264-2022</t>
+          <t>A 49610-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44746</v>
+        <v>45596</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9203,14 +9203,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52519-2025</t>
+          <t>A 14400-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45954.51563657408</v>
+        <v>45012</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 13662-2025</t>
+          <t>A 4089-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45736.77020833334</v>
+        <v>45323</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 55545-2022</t>
+          <t>A 23676-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44887</v>
+        <v>45454.61513888889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 34514-2023</t>
+          <t>A 60-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45140.38099537037</v>
+        <v>45293</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 55707-2025</t>
+          <t>A 58150-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45972</v>
+        <v>45632.43736111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55728-2025</t>
+          <t>A 4755-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45972</v>
+        <v>45328.66599537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 1299-2024</t>
+          <t>A 32430-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45303</v>
+        <v>45120</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 57725-2025</t>
+          <t>A 28496-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45981</v>
+        <v>45103.45262731481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 3565-2025</t>
+          <t>A 4605-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45680.68038194445</v>
+        <v>45687.56328703704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60227-2025</t>
+          <t>A 21488-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45994</v>
+        <v>45061</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 38028-2025</t>
+          <t>A 31908-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45882.3615625</v>
+        <v>45118</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2505-2026</t>
+          <t>A 7811-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46037.41112268518</v>
+        <v>44973</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 42105-2022</t>
+          <t>A 16314-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44830.55204861111</v>
+        <v>45407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 15154-2023</t>
+          <t>A 46613-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45016</v>
+        <v>45583</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 4977-2026</t>
+          <t>A 20623-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46047</v>
+        <v>45776.32377314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 7856-2026</t>
+          <t>A 20635-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46062.67539351852</v>
+        <v>45436</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7859-2026</t>
+          <t>A 23980-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46062.68539351852</v>
+        <v>45456</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9055-2026</t>
+          <t>A 55748-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46069.55903935185</v>
+        <v>45623.3237962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 9803-2026</t>
+          <t>A 48197-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46072</v>
+        <v>45590</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>46038.58359953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45664.57672453704</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45763</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>45707</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45105.47994212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44802</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44746</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45841.54231481482</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45887.39311342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45210</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45210</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>46041</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>46064.30774305556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44553</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>45705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>44839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44880.43927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44839.56018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44725.65212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44840.33121527778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44498.5819212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44498.58678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44657.63517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>44634.59737268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>44277.39847222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44802</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44802.69045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>44277.40048611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44634.59633101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44553</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45483.78387731482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45713</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>45377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>45377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>45715.62634259259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44879</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>45097</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>45720.7090625</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>45323</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>45474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>45117.89738425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45463.71800925926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45299</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45236.34621527778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44887</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45456.30621527778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>45097</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>45887</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>45887</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>45099</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>45022</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>45582</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>45622.48444444445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>45891.5194675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>45895</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45898</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>45583</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45908.57619212963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45835.4065625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45595.36711805555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45115</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>45736.77020833334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>45912.64872685185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>45915</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44900.69137731481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44720.50751157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45120.56152777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45926.57591435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>45929.67606481481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>45930</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>45708.2620949074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45169</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45882.3615625</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>45670</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>45461.46796296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>45705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>45706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>45735</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45700.46334490741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>44929</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>44900.69418981481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45462.46355324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45313.63804398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45115</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>45954.51563657408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44498</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>45581</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>45972</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>45972</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44973.77732638889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>45981</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44613</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>45763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>45075</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>45210</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44257</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45169</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45994</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44593.68116898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45118</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>46047</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44839</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45163</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44693.50188657407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
         <v>46062.67539351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>45189</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>46062.68539351852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45631</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>44746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>46069.55903935185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>45140.38099537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45303</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>46072</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45680.68038194445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>46037.41112268518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44830.55204861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45016</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>44864</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45345</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45596</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45012</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45323</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45454.61513888889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>45293</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45632.43736111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45328.66599537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45120</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45103.45262731481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45687.56328703704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45061</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45118</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44973</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>45583</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45776.32377314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>45436</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45456</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45623.3237962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45590</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
